--- a/Labal_making/Labal_making/bin/Debug/net6.0/입력.xlsx
+++ b/Labal_making/Labal_making/bin/Debug/net6.0/입력.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\라벨제조기\Labal_making\Labal_making\bin\Debug\net6.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\라벨제조기\Labal_making\MakingLabels_to\Labal_making\Labal_making\bin\Debug\net6.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19693AF3-2F12-49B9-95AB-A6D0FA292022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5C002-DAE5-48F7-826C-A90C82687717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">큰거 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은거</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -513,7 +509,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,19 +530,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>2022</v>
@@ -554,247 +548,208 @@
       <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
         <v>0</v>
       </c>
     </row>
